--- a/biology/Botanique/Ferocactus_fordii/Ferocactus_fordii.xlsx
+++ b/biology/Botanique/Ferocactus_fordii/Ferocactus_fordii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferocactus fordii est une espèce de cactus de la famille des Cactaceae et du genre Ferocactus, endémique du nord-ouest du Mexique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce de cactus à la forme sphérique présente de grandes épines qui poussent de manière radiale autour de petites fleurs roses. Elle mesure environ 50 centimètres de diamètre et ses fleurs 4 centimètres. 
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Découverte en Basse-Californie au Nord-Ouest du Mexique[3], cette espèce est définie comme une espèce endémique de l'État du Mexique[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Découverte en Basse-Californie au Nord-Ouest du Mexique, cette espèce est définie comme une espèce endémique de l'État du Mexique.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (28 mars 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (28 mars 2021) :
 sous-espèce Ferocactus fordii subsp. borealis N.P. Taylor
 sous-espèce Ferocactus fordii subsp. fordii
 variété Ferocactus fordii var. fordii
